--- a/docs/ef-fc-db.xlsx
+++ b/docs/ef-fc-db.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathansekela/Documents/Projects/flashcard-search/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5022EB79-081C-EC46-9005-856F3A068972}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ACBFAF-B159-2149-8046-7AF9D5EC4A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ef-fc-db-stringReadable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="457">
   <si>
     <t>number</t>
   </si>
@@ -968,12 +975,435 @@
   </si>
   <si>
     <t>cube</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>ssc</t>
+  </si>
+  <si>
+    <t>playground</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>cafeteria</t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>in front of</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>next to</t>
+  </si>
+  <si>
+    <t>in between</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>whistle</t>
+  </si>
+  <si>
+    <t>aunt</t>
+  </si>
+  <si>
+    <t>uncle</t>
+  </si>
+  <si>
+    <t>cousin</t>
+  </si>
+  <si>
+    <t>great grandmother</t>
+  </si>
+  <si>
+    <t>great grandfather</t>
+  </si>
+  <si>
+    <t>niece</t>
+  </si>
+  <si>
+    <t>nephew</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fang</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>windy</t>
+  </si>
+  <si>
+    <t>rainy</t>
+  </si>
+  <si>
+    <t>snowy</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>scarf</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>swimsuit</t>
+  </si>
+  <si>
+    <t>sunglasses</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>dolphin</t>
+  </si>
+  <si>
+    <t>squid</t>
+  </si>
+  <si>
+    <t>seahorse</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>starfish</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>shut</t>
+  </si>
+  <si>
+    <t>shy</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shop assistant</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>milkshake</t>
+  </si>
+  <si>
+    <t>iced tea</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>mug</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>torch/flashlight</t>
+  </si>
+  <si>
+    <t>punch</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>hot cocoa</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>dining room</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>bookcase</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>boom</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>soccer</t>
+  </si>
+  <si>
+    <t>baseball</t>
+  </si>
+  <si>
+    <t>table tennis</t>
+  </si>
+  <si>
+    <t>badminton</t>
+  </si>
+  <si>
+    <t>ice skating</t>
+  </si>
+  <si>
+    <t>rollerblading</t>
+  </si>
+  <si>
+    <t>volleyball</t>
+  </si>
+  <si>
+    <t>riding a horse</t>
+  </si>
+  <si>
+    <t>riding a bike</t>
+  </si>
+  <si>
+    <t>quickly</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>thick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1815,22 +2245,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455:B578"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +2274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1858,7 +2288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1872,7 +2302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1886,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1900,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1914,7 +2344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1928,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1942,7 +2372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1956,7 +2386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1970,7 +2400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1984,7 +2414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1998,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2012,7 +2442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2026,7 +2456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2040,7 +2470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2054,7 +2484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2068,7 +2498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2082,7 +2512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2096,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2110,7 +2540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2124,7 +2554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2138,7 +2568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2152,7 +2582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2166,7 +2596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2180,7 +2610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2194,7 +2624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2208,7 +2638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2222,7 +2652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2236,7 +2666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2250,7 +2680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2264,7 +2694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2278,7 +2708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2292,7 +2722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2306,7 +2736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2320,7 +2750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2334,7 +2764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2348,7 +2778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2362,7 +2792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2376,7 +2806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2390,7 +2820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2404,7 +2834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2418,7 +2848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2432,7 +2862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2446,7 +2876,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2460,7 +2890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2474,7 +2904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2488,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2502,7 +2932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2516,7 +2946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2530,7 +2960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2544,7 +2974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2554,9 +2984,11 @@
       <c r="C52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="D52" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2566,9 +2998,11 @@
       <c r="C53" s="1">
         <v>3</v>
       </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2578,9 +3012,11 @@
       <c r="C54" s="1">
         <v>3</v>
       </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2594,7 +3030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2608,7 +3044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2622,7 +3058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2636,7 +3072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2650,7 +3086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2664,7 +3100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2678,7 +3114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2692,7 +3128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2706,7 +3142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2720,7 +3156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2734,7 +3170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2748,7 +3184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2762,7 +3198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2776,7 +3212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2790,7 +3226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2804,7 +3240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2818,7 +3254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2832,7 +3268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2846,7 +3282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2860,7 +3296,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2874,7 +3310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2888,7 +3324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2902,7 +3338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2916,7 +3352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2930,7 +3366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2944,7 +3380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2958,7 +3394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2972,7 +3408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2986,7 +3422,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3000,7 +3436,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3014,7 +3450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3028,7 +3464,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3042,7 +3478,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3056,7 +3492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3070,7 +3506,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3084,7 +3520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3098,7 +3534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3112,7 +3548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3126,7 +3562,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3140,7 +3576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3154,7 +3590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3168,7 +3604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3182,7 +3618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3196,7 +3632,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3210,7 +3646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3224,7 +3660,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3238,7 +3674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3252,7 +3688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3266,7 +3702,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3280,7 +3716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3294,7 +3730,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3308,7 +3744,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3322,7 +3758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3336,7 +3772,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3350,7 +3786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3364,7 +3800,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3378,7 +3814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3392,7 +3828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3406,7 +3842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3420,7 +3856,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3434,7 +3870,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3448,7 +3884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3462,7 +3898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3476,7 +3912,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3490,7 +3926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3504,7 +3940,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3518,7 +3954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3532,7 +3968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3546,7 +3982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3560,7 +3996,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3574,7 +4010,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3588,7 +4024,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3602,7 +4038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3616,7 +4052,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3630,7 +4066,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3644,7 +4080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3658,7 +4094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3672,7 +4108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3686,7 +4122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3700,7 +4136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3714,7 +4150,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3728,7 +4164,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3742,7 +4178,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3756,7 +4192,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3770,7 +4206,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3784,7 +4220,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3798,7 +4234,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3812,7 +4248,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3826,7 +4262,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3840,7 +4276,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3854,7 +4290,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3868,319 +4304,293 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4194,7 +4604,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4208,7 +4618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4222,7 +4632,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4236,7 +4646,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4250,7 +4660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4264,7 +4674,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4278,7 +4688,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4292,7 +4702,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4306,7 +4716,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4320,7 +4730,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4334,7 +4744,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4348,7 +4758,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4362,7 +4772,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4376,7 +4786,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4390,7 +4800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4404,7 +4814,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4418,7 +4828,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4432,7 +4842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4446,7 +4856,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4460,7 +4870,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4474,7 +4884,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4488,7 +4898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4502,7 +4912,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4516,7 +4926,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4530,7 +4940,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4544,7 +4954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4558,7 +4968,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4572,7 +4982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4586,7 +4996,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4600,7 +5010,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4614,7 +5024,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4628,7 +5038,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4642,7 +5052,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4656,7 +5066,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4670,7 +5080,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4684,7 +5094,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4698,7 +5108,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4712,7 +5122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4726,7 +5136,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4740,7 +5150,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4754,7 +5164,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4768,7 +5178,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4782,7 +5192,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4796,7 +5206,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4810,7 +5220,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4824,7 +5234,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4838,7 +5248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4852,7 +5262,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4866,7 +5276,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4880,7 +5290,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4894,7 +5304,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4908,7 +5318,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4922,7 +5332,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4936,7 +5346,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4950,7 +5360,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4964,7 +5374,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4978,7 +5388,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -4992,7 +5402,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5006,7 +5416,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5020,7 +5430,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5034,7 +5444,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5048,7 +5458,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5062,7 +5472,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5076,7 +5486,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5090,7 +5500,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5104,7 +5514,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5118,7 +5528,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5132,7 +5542,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5146,7 +5556,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5160,7 +5570,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5174,7 +5584,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5188,7 +5598,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5202,7 +5612,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5216,7 +5626,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5230,7 +5640,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5244,7 +5654,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5258,7 +5668,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5272,7 +5682,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5286,7 +5696,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5300,7 +5710,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5314,7 +5724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5328,7 +5738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5342,7 +5752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5356,7 +5766,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5370,7 +5780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5384,7 +5794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5398,7 +5808,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5412,7 +5822,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5426,7 +5836,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5440,7 +5850,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5454,7 +5864,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5468,7 +5878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5482,7 +5892,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5496,7 +5906,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5510,7 +5920,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5524,7 +5934,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5538,7 +5948,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5552,7 +5962,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5566,7 +5976,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5580,7 +5990,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5594,7 +6004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5608,7 +6018,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5622,7 +6032,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5636,7 +6046,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5650,7 +6060,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5664,7 +6074,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5678,7 +6088,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5692,7 +6102,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5706,7 +6116,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5720,7 +6130,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5734,7 +6144,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5748,7 +6158,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5762,7 +6172,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5776,7 +6186,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5790,7 +6200,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5804,7 +6214,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5818,7 +6228,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5832,7 +6242,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5846,7 +6256,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5860,7 +6270,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5874,7 +6284,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5888,7 +6298,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5902,7 +6312,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5916,7 +6326,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5930,7 +6340,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5944,7 +6354,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -5958,7 +6368,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -5972,7 +6382,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -5986,7 +6396,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -6000,7 +6410,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -6014,7 +6424,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -6028,7 +6438,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -6042,7 +6452,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -6056,7 +6466,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -6070,7 +6480,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6084,7 +6494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6098,7 +6508,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -6112,7 +6522,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6126,7 +6536,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -6140,7 +6550,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6154,7 +6564,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6168,7 +6578,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6182,7 +6592,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6194,6 +6604,2076 @@
       </c>
       <c r="D316" s="1" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <f>A316+1</f>
+        <v>316</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <f t="shared" ref="A318:A381" si="0">A317+1</f>
+        <v>317</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C323" s="1">
+        <v>1</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C325" s="1">
+        <v>1</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C326" s="1">
+        <v>1</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C327" s="1">
+        <v>1</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <f t="shared" si="0"/>
+        <v>329</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C330" s="1">
+        <v>2</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C331" s="1">
+        <v>2</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <f t="shared" si="0"/>
+        <v>331</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C332" s="1">
+        <v>2</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C333" s="1">
+        <v>2</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C334" s="1">
+        <v>2</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C335" s="1">
+        <v>2</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C336" s="1">
+        <v>2</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C337" s="1">
+        <v>2</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C338" s="1">
+        <v>2</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C339" s="1">
+        <v>2</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C340" s="1">
+        <v>2</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C341" s="1">
+        <v>2</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C342" s="1">
+        <v>2</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C343" s="1">
+        <v>2</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C344" s="1">
+        <v>3</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C345" s="1">
+        <v>3</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C346" s="1">
+        <v>3</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C347" s="1">
+        <v>3</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C348" s="1">
+        <v>3</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C349" s="1">
+        <v>3</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C350" s="1">
+        <v>3</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C351" s="1">
+        <v>3</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C352" s="1">
+        <v>3</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C353" s="1">
+        <v>3</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C354" s="1">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C355" s="1">
+        <v>3</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C356" s="1">
+        <v>3</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C357" s="1">
+        <v>3</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C358" s="1">
+        <v>3</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C359" s="1">
+        <v>3</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C360" s="1">
+        <v>3</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C361" s="1">
+        <v>3</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C362" s="1">
+        <v>3</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <f t="shared" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C363" s="1">
+        <v>3</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C364" s="1">
+        <v>3</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C365" s="1">
+        <v>3</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C366" s="1">
+        <v>3</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C367" s="1">
+        <v>3</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C368" s="1">
+        <v>4</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C369" s="1">
+        <v>4</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C370" s="1">
+        <v>4</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C371" s="1">
+        <v>4</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C372" s="1">
+        <v>4</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C373" s="1">
+        <v>4</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C374" s="1">
+        <v>4</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C375" s="1">
+        <v>4</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C376" s="1">
+        <v>4</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C377" s="1">
+        <v>4</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C378" s="1">
+        <v>4</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C379" s="1">
+        <v>4</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <f t="shared" si="0"/>
+        <v>379</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C380" s="1">
+        <v>4</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C381" s="1">
+        <v>4</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <f t="shared" ref="A382:A445" si="1">A381+1</f>
+        <v>381</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C382" s="1">
+        <v>4</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C383" s="1">
+        <v>4</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C384" s="1">
+        <v>4</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C385" s="1">
+        <v>4</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C386" s="1">
+        <v>5</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C387" s="1">
+        <v>5</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C388" s="1">
+        <v>5</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C389" s="1">
+        <v>5</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C390" s="1">
+        <v>5</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C391" s="1">
+        <v>5</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <f t="shared" si="1"/>
+        <v>391</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C392" s="1">
+        <v>5</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C393" s="1">
+        <v>5</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C394" s="1">
+        <v>5</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <f t="shared" si="1"/>
+        <v>394</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C395" s="1">
+        <v>5</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C396" s="1">
+        <v>5</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C397" s="1">
+        <v>5</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C398" s="1">
+        <v>5</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C399" s="1">
+        <v>5</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C400" s="1">
+        <v>5</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C401" s="1">
+        <v>5</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C402" s="1">
+        <v>6</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <f t="shared" si="1"/>
+        <v>402</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C403" s="1">
+        <v>6</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C404" s="1">
+        <v>6</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C405" s="1">
+        <v>6</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C406" s="1">
+        <v>6</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C407" s="1">
+        <v>6</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C408" s="1">
+        <v>6</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C409" s="1">
+        <v>6</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C410" s="1">
+        <v>6</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C411" s="1">
+        <v>6</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C412" s="1">
+        <v>6</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <f t="shared" si="1"/>
+        <v>412</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C413" s="1">
+        <v>6</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C414" s="1">
+        <v>6</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C415" s="1">
+        <v>6</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C416" s="1">
+        <v>6</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C417" s="1">
+        <v>6</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <f t="shared" si="1"/>
+        <v>417</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C418" s="1">
+        <v>6</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C419" s="1">
+        <v>6</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C420" s="1">
+        <v>6</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C421" s="1">
+        <v>6</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <f t="shared" si="1"/>
+        <v>421</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C422" s="1">
+        <v>7</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <f t="shared" si="1"/>
+        <v>422</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C423" s="1">
+        <v>7</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C424" s="1">
+        <v>7</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C425" s="1">
+        <v>7</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C426" s="1">
+        <v>7</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C427" s="1">
+        <v>7</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <f t="shared" si="1"/>
+        <v>427</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C428" s="1">
+        <v>7</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <f t="shared" si="1"/>
+        <v>428</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C429" s="1">
+        <v>7</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C430" s="1">
+        <v>7</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C431" s="1">
+        <v>7</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C432" s="1">
+        <v>7</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C433" s="1">
+        <v>7</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C434" s="1">
+        <v>7</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <f t="shared" si="1"/>
+        <v>434</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C435" s="1">
+        <v>7</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C436" s="1">
+        <v>7</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C437" s="1">
+        <v>7</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C438" s="1">
+        <v>7</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C439" s="1">
+        <v>8</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <f t="shared" si="1"/>
+        <v>439</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C440" s="1">
+        <v>8</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C441" s="1">
+        <v>8</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C442" s="1">
+        <v>8</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <f t="shared" si="1"/>
+        <v>442</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C443" s="1">
+        <v>8</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C444" s="1">
+        <v>8</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C445" s="1">
+        <v>8</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <f t="shared" ref="A446:A509" si="2">A445+1</f>
+        <v>445</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C446" s="1">
+        <v>8</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <f t="shared" si="2"/>
+        <v>446</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C447" s="1">
+        <v>8</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <f t="shared" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C448" s="1">
+        <v>8</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C449" s="1">
+        <v>8</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <f t="shared" si="2"/>
+        <v>449</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C450" s="1">
+        <v>8</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C451" s="1">
+        <v>8</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <f t="shared" si="2"/>
+        <v>451</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C452" s="1">
+        <v>8</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C453" s="1">
+        <v>8</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C454" s="1">
+        <v>8</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
